--- a/jd_category.xlsx
+++ b/jd_category.xlsx
@@ -435,151 +435,151 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1397042360</v>
+        <v>10974727755</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>["传统滋补","滋养气血","阿胶","阿胶块"</t>
+          <t>["传统滋补","养生茶饮","保健茶饮"</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4995657</v>
+        <v>1063756278</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>["传统滋补","滋补贵细","灵芝/孢子粉","灵芝孢子粉"</t>
+          <t>["传统滋补","滋补贵细","石斛/枫斗","石斛枫斗"</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3547445</v>
+        <v>497394</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>["传统滋补","滋养气血","阿胶","阿胶糕/固元糕"</t>
+          <t>["营养保健","婴幼儿营养","婴幼儿DHA/鱼肝油"</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1063756278</v>
+        <v>100009932241</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>["传统滋补","滋补贵细","石斛/枫斗","石斛枫斗"</t>
+          <t>["营养保健","婴幼儿营养","婴幼儿益生菌"</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>497394</v>
+        <v>3547445</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>["营养保健","婴幼儿营养","婴幼儿DHA/鱼肝油"</t>
+          <t>["传统滋补","滋养气血","阿胶","阿胶糕/固元糕"</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10974727755</v>
+        <v>6163233</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>["传统滋补","养生茶饮","保健茶饮"</t>
+          <t>["营养保健","维生素/矿物质","维生素","维生素E"</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59874420924</v>
+        <v>100004262540</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>["传统滋补","燕窝","鲜炖燕窝"</t>
+          <t>["营养保健","增强免疫","蛋白粉"</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2048872</v>
+        <v>4995657</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>["营养保健","特医配方食品","特殊医学用途配方食品"</t>
+          <t>["传统滋补","滋补贵细","灵芝/孢子粉","灵芝孢子粉"</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>232428</v>
+        <v>1397042360</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>["营养保健","维生素/矿物质","复合维矿物质"</t>
+          <t>["传统滋补","滋养气血","阿胶","阿胶块"</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2346246</v>
+        <v>2048872</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>["营养保健","增强免疫","蛋白粉"</t>
+          <t>["营养保健","特医配方食品","特殊医学用途配方食品"</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6163233</v>
+        <v>4396232</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>["营养保健","维生素/矿物质","维生素","维生素E"</t>
+          <t>["营养保健","特医配方食品","特殊医学用途婴儿配方食品"</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4396232</v>
+        <v>2346246</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>["营养保健","特医配方食品","特殊医学用途婴儿配方食品"</t>
+          <t>["营养保健","增强免疫","蛋白粉"</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2195017</v>
+        <v>4643183</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>["传统滋补","滋补贵细","冬虫夏草","冬虫夏草"</t>
+          <t>["传统滋补","燕窝","即食燕窝"</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100004262540</v>
+        <v>59874420924</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>["营养保健","增强免疫","蛋白粉"</t>
+          <t>["传统滋补","燕窝","鲜炖燕窝"</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100010541576</v>
+        <v>232428</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>["传统滋补","燕窝","即食燕窝"</t>
+          <t>["营养保健","维生素/矿物质","复合维矿物质"</t>
         </is>
       </c>
     </row>
@@ -595,31 +595,31 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100032254542</v>
+        <v>100010541576</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>["传统滋补","燕窝","鲜炖燕窝"</t>
+          <t>["传统滋补","燕窝","即食燕窝"</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4643183</v>
+        <v>2195017</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>["传统滋补","燕窝","即食燕窝"</t>
+          <t>["传统滋补","滋补贵细","冬虫夏草","冬虫夏草"</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>100009932241</v>
+        <v>100032254542</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>["营养保健","婴幼儿营养","婴幼儿益生菌"</t>
+          <t>["传统滋补","燕窝","鲜炖燕窝"</t>
         </is>
       </c>
     </row>
